--- a/dist/document/dest/2020/10/doctors/28.xlsx
+++ b/dist/document/dest/2020/10/doctors/28.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>300</v>
       </c>
-      <c r="C2" s="1">
-        <v>690000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>181500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>435</v>
       </c>
-      <c r="C4" s="1">
-        <v>750375</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>105</v>
       </c>
-      <c r="C5" s="1">
-        <v>808500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
-        <v>640360</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>2349</v>
       </c>
-      <c r="C7" s="1">
-        <v>17828910</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>555</v>
       </c>
-      <c r="C8" s="1">
-        <v>3235650</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>188</v>
       </c>
-      <c r="C9" s="1">
-        <v>410780</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
-        <v>1762200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>225</v>
       </c>
-      <c r="C11" s="1">
-        <v>1608750</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>990</v>
       </c>
-      <c r="C12" s="1">
-        <v>2554200</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>202</v>
       </c>
-      <c r="C13" s="1">
-        <v>2833050</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>240</v>
       </c>
-      <c r="C14" s="1">
-        <v>758400</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>215</v>
       </c>
-      <c r="C15" s="1">
-        <v>1466300</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>82</v>
       </c>
-      <c r="C16" s="1">
-        <v>1416140</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>90</v>
       </c>
-      <c r="C17" s="1">
-        <v>27000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>160</v>
       </c>
-      <c r="C18" s="1">
-        <v>398400</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1370</v>
       </c>
-      <c r="C19" s="1">
-        <v>4568950</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>1524</v>
       </c>
-      <c r="C20" s="1">
-        <v>15925800</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>75</v>
       </c>
-      <c r="C21" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
-        <v>254100</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>478500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>630</v>
       </c>
-      <c r="C24" s="1">
-        <v>724500</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
-        <v>1300800</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>103500</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>599</v>
       </c>
-      <c r="C27" s="1">
-        <v>2755400</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>540</v>
       </c>
-      <c r="C28" s="1">
-        <v>3088800</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>210</v>
       </c>
-      <c r="C29" s="1">
-        <v>531300</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>75</v>
       </c>
-      <c r="C31" s="1">
-        <v>258750</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>120</v>
       </c>
-      <c r="C32" s="1">
-        <v>455400</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>390</v>
       </c>
-      <c r="C33" s="1">
-        <v>2273700</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>682</v>
       </c>
-      <c r="C34" s="1">
-        <v>9902640</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>290</v>
       </c>
-      <c r="C35" s="1">
-        <v>5742000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>120</v>
       </c>
-      <c r="C36" s="1">
-        <v>427800</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>390</v>
       </c>
-      <c r="C37" s="1">
-        <v>6084000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>90</v>
       </c>
-      <c r="C38" s="1">
-        <v>871200</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>450</v>
       </c>
-      <c r="C39" s="1">
-        <v>2484000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>570</v>
       </c>
-      <c r="C40" s="1">
-        <v>8778000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>210</v>
       </c>
-      <c r="C41" s="1">
-        <v>676200</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>15</v>
       </c>
-      <c r="C42" s="1">
-        <v>18975</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>60</v>
       </c>
-      <c r="C43" s="1">
-        <v>110400</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>30</v>
       </c>
-      <c r="C44" s="1">
-        <v>63600</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>60</v>
       </c>
-      <c r="C45" s="1">
-        <v>165600</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>120</v>
       </c>
-      <c r="C46" s="1">
-        <v>607200</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>337</v>
       </c>
-      <c r="C47" s="1">
-        <v>1356425</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>390</v>
       </c>
-      <c r="C48" s="1">
-        <v>1794000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>201</v>
       </c>
-      <c r="C49" s="1">
-        <v>1155750</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>8</v>
       </c>
-      <c r="C50" s="1">
-        <v>660000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>145</v>
       </c>
-      <c r="C51" s="1">
-        <v>184875</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>177</v>
       </c>
-      <c r="C52" s="1">
-        <v>1168200</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>420</v>
       </c>
-      <c r="C53" s="1">
-        <v>1738800</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>15</v>
       </c>
-      <c r="C54" s="1">
-        <v>6825</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>540</v>
       </c>
-      <c r="C55" s="1">
-        <v>650700</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>342</v>
       </c>
-      <c r="C56" s="1">
-        <v>3160080</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>180</v>
       </c>
-      <c r="C57" s="1">
-        <v>1287000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>30</v>
       </c>
-      <c r="C58" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>157</v>
       </c>
-      <c r="C59" s="1">
-        <v>1364330</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>510</v>
       </c>
-      <c r="C60" s="1">
-        <v>4488000</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>427</v>
       </c>
-      <c r="C61" s="1">
-        <v>4650030</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>15</v>
       </c>
-      <c r="C62" s="1">
-        <v>10350</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>180</v>
       </c>
-      <c r="C63" s="1">
-        <v>227700</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>7</v>
       </c>
-      <c r="C64" s="1">
-        <v>53130</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="C65" s="1">
-        <v>211050</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>630</v>
       </c>
-      <c r="C66" s="1">
-        <v>614250</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>260</v>
       </c>
-      <c r="C67" s="1">
-        <v>627900</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>630</v>
       </c>
-      <c r="C68" s="1">
-        <v>2860200</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>39</v>
       </c>
-      <c r="C69" s="1">
-        <v>343200</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>742</v>
       </c>
-      <c r="C70" s="1">
-        <v>6366360</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>300</v>
       </c>
-      <c r="C71" s="1">
-        <v>1449000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>15</v>
       </c>
-      <c r="C72" s="1">
-        <v>412500</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1186,7 +973,7 @@
         <v>21868</v>
       </c>
       <c r="C73" s="1">
-        <v>144489785</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/28.xlsx
+++ b/dist/document/dest/2020/10/doctors/28.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,23 +402,32 @@
         <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B2" s="1">
-        <v>300</v>
+        <v>170</v>
+      </c>
+      <c r="C2" s="1">
+        <v>391000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Althax (Thymomodulin 120mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Arthur (Trimebutine 200mg)</v>
+        <v xml:space="preserve">Aspartam </v>
       </c>
       <c r="B4" s="1">
-        <v>435</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65000</v>
       </c>
     </row>
     <row r="5">
@@ -426,23 +435,32 @@
         <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B5" s="1">
-        <v>105</v>
+        <v>330</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2541000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B6" s="1">
-        <v>28</v>
+        <v>1173</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8903070</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>2349</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>207900</v>
       </c>
     </row>
     <row r="8">
@@ -450,7 +468,10 @@
         <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B8" s="1">
-        <v>555</v>
+        <v>510</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2973300</v>
       </c>
     </row>
     <row r="9">
@@ -458,39 +479,54 @@
         <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>188</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>131100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1072500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>225</v>
+        <v>850</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2193000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>990</v>
+        <v>285</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3997125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>202</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42550</v>
       </c>
     </row>
     <row r="14">
@@ -498,7 +534,10 @@
         <v>Cigenol</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +545,10 @@
         <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>215</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>682000</v>
       </c>
     </row>
     <row r="16">
@@ -514,7 +556,10 @@
         <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1295250</v>
       </c>
     </row>
     <row r="17">
@@ -522,39 +567,54 @@
         <v>Doaspin 81mg (Acetylsalicylic)</v>
       </c>
       <c r="B17" s="1">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
+        <v>Dochicin (Colchicine 1mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>160</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Domitazol (Malva purpurea, xanh methylen, camphor monobromid)</v>
       </c>
       <c r="B19" s="1">
-        <v>1370</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>74700</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>1524</v>
+        <v>634</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2114390</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B21" s="1">
-        <v>75</v>
+        <v>304</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3176800</v>
       </c>
     </row>
     <row r="22">
@@ -562,7 +622,10 @@
         <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2032800</v>
       </c>
     </row>
     <row r="23">
@@ -572,413 +635,475 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
+      <c r="C23" s="1">
+        <v>478500</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B24" s="1">
-        <v>630</v>
+        <v>540</v>
+      </c>
+      <c r="C24" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Fosamax Plus 70mg/5600IU (Alendronic, colecalciferol)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>12</v>
+        <v>570</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2622000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>30</v>
+        <v>360</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2059200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>599</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>101200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Goldesome (Esomeprazole 40mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>540</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>326700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B29" s="1">
-        <v>210</v>
+        <v>360</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1366200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3484800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2039400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
       </c>
       <c r="B32" s="1">
-        <v>120</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>349400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Ketosteril</v>
       </c>
       <c r="B33" s="1">
-        <v>390</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>624000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
       </c>
       <c r="B34" s="1">
-        <v>682</v>
+        <v>210</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2032800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>290</v>
+        <v>270</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1490400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>120</v>
+        <v>510</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7854000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ketosteril</v>
+        <v>Mecitil (Flunarizine 5.9mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>390</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="1">
+        <v>241500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Metozamin (Metformin 850mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>110400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Mosad MT (Mosapride 5mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>450</v>
+        <v>120</v>
+      </c>
+      <c r="C39" s="1">
+        <v>331200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Nevol (Nebivolol 2.5mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>570</v>
+        <v>135</v>
+      </c>
+      <c r="C40" s="1">
+        <v>543375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Normodipine (Amlodipine 5mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>210</v>
+        <v>285</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1311000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
       </c>
       <c r="B42" s="1">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>49400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Nystatin 25.000 IU (Goi)</v>
       </c>
       <c r="B43" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>14900</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
       </c>
       <c r="B44" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>129000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Oxabiti (Mecobalamine 500mg)</v>
       </c>
       <c r="B45" s="1">
         <v>60</v>
       </c>
+      <c r="C45" s="1">
+        <v>193200</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nadebo (Rebamipide 100mg)</v>
+        <v>Palibone (Alendronic 70mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>330000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
       </c>
       <c r="B47" s="1">
-        <v>337</v>
+        <v>80</v>
+      </c>
+      <c r="C47" s="1">
+        <v>102000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Pantonix (Pantoprazole 40mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>390</v>
+        <v>205</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1353000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Pharcotinex</v>
       </c>
       <c r="B49" s="1">
-        <v>201</v>
+        <v>270</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1117800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Palibone (Alendronic 70mg)</v>
+        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
       </c>
       <c r="B50" s="1">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v>Regurgex (Domperidone 10mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>145</v>
+        <v>310</v>
+      </c>
+      <c r="C51" s="1">
+        <v>373550</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Remem (Ginkgo biloba 120mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>177</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>554400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Pharcotinex</v>
+        <v>Rotalzon (Losartan 50mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1501500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Sanaperol (Rabeprazol 20mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>260700</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Somexwell (Esomeprazole 20mg</v>
       </c>
       <c r="B55" s="1">
-        <v>540</v>
+        <v>200</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1760000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Surotadina (Rosuvastatin 10mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>342</v>
+        <v>405</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4410450</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Tesafu (Rupatadin 10mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>180</v>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>386925</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Sagason (Clopidogrel 75mg)</v>
+        <v>Tetracyclin 500mg</v>
       </c>
       <c r="B58" s="1">
-        <v>30</v>
+        <v>540</v>
+      </c>
+      <c r="C58" s="1">
+        <v>526500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Tyrozet (Metformin 850mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>157</v>
+        <v>360</v>
+      </c>
+      <c r="C59" s="1">
+        <v>869400</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>510</v>
+        <v>540</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2451600</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>427</v>
+        <v>70</v>
+      </c>
+      <c r="C61" s="1">
+        <v>616000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Taginyl VN (Acetyl-DL-Leucine 500mg)</v>
+        <v>Vespratab kit (Clarithromycin, tinidazole, esomeprazole)</v>
       </c>
       <c r="B62" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1293600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Vigorito (Vildagliptin 50mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>180</v>
+        <v>880</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7550400</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
       </c>
       <c r="B64" s="1">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="C64" s="1">
+        <v>676200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Tesafu (Rupatadin 10mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B65" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Tetracyclin 500mg</v>
-      </c>
-      <c r="B66" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
-      </c>
-      <c r="B67" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
-      </c>
-      <c r="B68" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
-      </c>
-      <c r="B69" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
-      </c>
-      <c r="B70" s="1">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
-      </c>
-      <c r="B71" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>Zinecox (Cefditoren 200mg)</v>
-      </c>
-      <c r="B72" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B73" s="1">
-        <v>21868</v>
-      </c>
-      <c r="C73" s="1">
-        <v>NaN</v>
+        <v>13651</v>
+      </c>
+      <c r="C65" s="1">
+        <v>87167885</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C73"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C65"/>
   </ignoredErrors>
 </worksheet>
 </file>